--- a/sheets/xlsxContracts.xlsx
+++ b/sheets/xlsxContracts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +439,48 @@
       <c r="L1" t="str">
         <v>Number of inherited classes</v>
       </c>
+      <c r="M1" t="str">
+        <v>Number of modifiers</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Number of mappings</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Number of arrays</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Number of enums</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Number of public functions</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Number of private functions</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Number of internal functions</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Number of external functions</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Number of default functions</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Number of constant state variables</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Cyclomatic Complexity</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Number of fallback functions</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Number of receive functions</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Number of function calls</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -477,6 +519,48 @@
       <c r="L2">
         <v>2</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>24</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -515,6 +599,48 @@
       <c r="L3">
         <v>2</v>
       </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>53</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>153</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -553,6 +679,48 @@
       <c r="L4">
         <v>2</v>
       </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -591,6 +759,48 @@
       <c r="L5">
         <v>2</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -629,6 +839,48 @@
       <c r="L6">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>21</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -667,6 +919,48 @@
       <c r="L7">
         <v>1</v>
       </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>11</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -705,6 +999,48 @@
       <c r="L8">
         <v>1</v>
       </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>26</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>19</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -743,6 +1079,48 @@
       <c r="L9">
         <v>2</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -781,6 +1159,48 @@
       <c r="L10">
         <v>1</v>
       </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>23</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -819,6 +1239,48 @@
       <c r="L11">
         <v>1</v>
       </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -857,6 +1319,48 @@
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -895,6 +1399,48 @@
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -933,6 +1479,48 @@
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -971,6 +1559,48 @@
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>11</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1009,6 +1639,48 @@
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1047,6 +1719,48 @@
       <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>69</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1085,6 +1799,48 @@
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1123,6 +1879,48 @@
       <c r="L19">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1161,6 +1959,48 @@
       <c r="L20">
         <v>2</v>
       </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1199,6 +2039,48 @@
       <c r="L21">
         <v>0</v>
       </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1237,6 +2119,48 @@
       <c r="L22">
         <v>1</v>
       </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1275,6 +2199,48 @@
       <c r="L23">
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1313,6 +2279,48 @@
       <c r="L24">
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1351,6 +2359,48 @@
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>19</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1389,6 +2439,48 @@
       <c r="L26">
         <v>0</v>
       </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1427,6 +2519,48 @@
       <c r="L27">
         <v>0</v>
       </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1465,6 +2599,48 @@
       <c r="L28">
         <v>1</v>
       </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1503,6 +2679,48 @@
       <c r="L29">
         <v>0</v>
       </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1541,6 +2759,48 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1579,6 +2839,48 @@
       <c r="L31">
         <v>1</v>
       </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1617,6 +2919,48 @@
       <c r="L32">
         <v>1</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1655,6 +2999,48 @@
       <c r="L33">
         <v>1</v>
       </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>19</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1693,6 +3079,48 @@
       <c r="L34">
         <v>1</v>
       </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>16</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>71</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1731,6 +3159,48 @@
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>15</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>75</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1769,6 +3239,48 @@
       <c r="L36">
         <v>0</v>
       </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>41</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1807,6 +3319,48 @@
       <c r="L37">
         <v>0</v>
       </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>12</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1845,6 +3399,48 @@
       <c r="L38">
         <v>0</v>
       </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1883,6 +3479,48 @@
       <c r="L39">
         <v>0</v>
       </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1921,6 +3559,48 @@
       <c r="L40">
         <v>0</v>
       </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1959,6 +3639,48 @@
       <c r="L41">
         <v>0</v>
       </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>22</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>6</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1997,6 +3719,48 @@
       <c r="L42">
         <v>0</v>
       </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -2035,6 +3799,48 @@
       <c r="L43">
         <v>1</v>
       </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>4</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -2073,6 +3879,48 @@
       <c r="L44">
         <v>1</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -2111,6 +3959,48 @@
       <c r="L45">
         <v>2</v>
       </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>4</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -2149,6 +4039,48 @@
       <c r="L46">
         <v>2</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>7</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -2187,6 +4119,48 @@
       <c r="L47">
         <v>1</v>
       </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>6</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>39</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>64</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -2225,6 +4199,48 @@
       <c r="L48">
         <v>1</v>
       </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="T48">
+        <v>12</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>35</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -2263,6 +4279,48 @@
       <c r="L49">
         <v>1</v>
       </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>24</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>15</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>71</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -2301,6 +4359,48 @@
       <c r="L50">
         <v>2</v>
       </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>17</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -2339,6 +4439,48 @@
       <c r="L51">
         <v>1</v>
       </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>5</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>16</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -2377,6 +4519,48 @@
       <c r="L52">
         <v>2</v>
       </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>9</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>99</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>241</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -2415,6 +4599,48 @@
       <c r="L53">
         <v>2</v>
       </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>6</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>13</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -2453,6 +4679,48 @@
       <c r="L54">
         <v>0</v>
       </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>11</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -2491,6 +4759,48 @@
       <c r="L55">
         <v>0</v>
       </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -2529,6 +4839,48 @@
       <c r="L56">
         <v>0</v>
       </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>62</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -2567,6 +4919,48 @@
       <c r="L57">
         <v>0</v>
       </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -2605,6 +4999,48 @@
       <c r="L58">
         <v>0</v>
       </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>6</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -2643,6 +5079,48 @@
       <c r="L59">
         <v>0</v>
       </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>9</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -2681,6 +5159,48 @@
       <c r="L60">
         <v>0</v>
       </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -2719,6 +5239,48 @@
       <c r="L61">
         <v>0</v>
       </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>19</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -2757,6 +5319,48 @@
       <c r="L62">
         <v>0</v>
       </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>43</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -2795,6 +5399,48 @@
       <c r="L63">
         <v>0</v>
       </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -2833,6 +5479,48 @@
       <c r="L64">
         <v>0</v>
       </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>39</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -2871,6 +5559,48 @@
       <c r="L65">
         <v>1</v>
       </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -2909,6 +5639,48 @@
       <c r="L66">
         <v>0</v>
       </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -2947,6 +5719,48 @@
       <c r="L67">
         <v>1</v>
       </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>6</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>36</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -2985,6 +5799,48 @@
       <c r="L68">
         <v>1</v>
       </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>5</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>16</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -3023,6 +5879,48 @@
       <c r="L69">
         <v>2</v>
       </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -3061,6 +5959,48 @@
       <c r="L70">
         <v>1</v>
       </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>8</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -3099,6 +6039,48 @@
       <c r="L71">
         <v>1</v>
       </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>5</v>
+      </c>
+      <c r="T71">
+        <v>4</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>16</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>89</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -3137,6 +6119,48 @@
       <c r="L72">
         <v>1</v>
       </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>11</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>28</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -3175,6 +6199,48 @@
       <c r="L73">
         <v>1</v>
       </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>7</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>5</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>21</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>78</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -3213,6 +6279,48 @@
       <c r="L74">
         <v>0</v>
       </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>44</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -3251,6 +6359,48 @@
       <c r="L75">
         <v>0</v>
       </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>7</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>3</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -3289,6 +6439,48 @@
       <c r="L76">
         <v>0</v>
       </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>5</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>10</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -3327,10 +6519,52 @@
       <c r="L77">
         <v>0</v>
       </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z77"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/xlsxContracts.xlsx
+++ b/sheets/xlsxContracts.xlsx
@@ -484,7 +484,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/EntryPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
       </c>
       <c r="B2" t="str">
         <v>EntryPositionsManager</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/ExitPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
       </c>
       <c r="B3" t="str">
         <v>ExitPositionsManager</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/IncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
       </c>
       <c r="B4" t="str">
         <v>IncentivesVault</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/InterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
       </c>
       <c r="B5" t="str">
         <v>InterestRatesManager</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -804,40 +804,40 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MatchingEngine.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>MatchingEngine</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -879,43 +879,43 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/Morpho.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>Morpho</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -959,70 +959,70 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MorphoGovernance.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>MorphoGovernance</v>
+        <v>IAToken</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>519</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>22</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>26</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1039,30 +1039,30 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MorphoStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>MorphoStorage</v>
+        <v>IERC20</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1074,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1124,43 +1124,43 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MorphoUtils.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>MorphoUtils</v>
+        <v>ILendingPool</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1199,15 +1199,15 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/PositionsManagerUtils.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1216,28 +1216,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1279,15 +1279,15 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IEntryPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IExitPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IExitPositionsManager</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1444,25 +1444,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IGetterUnderlyingAsset.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IIncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>IIncentivesVault</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1604,25 +1604,25 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IInterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>IInterestRatesManager</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IMorpho.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>IMorpho</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1764,25 +1764,25 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IOracle.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>IOracle</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1844,25 +1844,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IRewardsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>IRewardsManager</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IAToken.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>IAToken</v>
+        <v>IMorpho</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2004,25 +2004,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IAaveIncentivesController.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IOracle</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IAaveIncentivesController.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2164,25 +2164,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IERC20.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>IERC20</v>
+        <v>ILido</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2244,40 +2244,40 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/ILendingPool.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>ILendingPool</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>410</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2319,30 +2319,30 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/ILendingPoolAddressesProvider.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>ILens</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2404,31 +2404,31 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IPriceOracleGetter.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>Lens</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2479,15 +2479,15 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IScaledBalanceToken.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>LensStorage</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2541,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -2559,42 +2559,42 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IVariableDebtToken.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>IVariableDebtToken</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2639,69 +2639,69 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/lido/ILido.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>ILido</v>
+        <v>RatesLens</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>457</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>5</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -2719,70 +2719,70 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/IndexesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>IndexesLens</v>
+        <v>UsersLens</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>471</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>113</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
       <c r="U30">
         <v>0</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -2799,36 +2799,36 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/Lens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>Lens</v>
+        <v>DataTypes</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>98</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2861,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -2879,30 +2879,30 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/LensStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>LensStorage</v>
+        <v>Errors</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>1</v>
@@ -2959,36 +2959,36 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/MarketsLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>MarketsLens</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>225</v>
+        <v>364</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3039,36 +3039,36 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/RatesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>RatesLens</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3092,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3119,36 +3119,36 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/UsersLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>UsersLens</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>197</v>
+      </c>
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>19</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>471</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3172,16 +3172,16 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3199,33 +3199,33 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/interfaces/ILens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>ILens</v>
+        <v>Types</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3284,28 +3284,28 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/InterestRatesModel.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>InterestRatesModel</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>197</v>
+        <v>344</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3359,70 +3359,70 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/Types.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>Types</v>
+        <v>Morpho</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
         <v>11</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3439,45 +3439,45 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/DataTypes.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>DataTypes</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>519</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -3519,30 +3519,30 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/Errors.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>Errors</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3604,43 +3604,43 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/ReserveConfiguration.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>ReserveConfiguration</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -3679,15 +3679,15 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/UserConfiguration.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>UserConfiguration</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3696,28 +3696,28 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -3759,12 +3759,12 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>morpho/morpho-v1-main/src/common/rewards-distribution/RewardsDistributor.sol</v>
+        <v>morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
       </c>
       <c r="B43" t="str">
         <v>RewardsDistributor</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>morpho/morpho-v1-main/src/common/test/FakeToken.sol</v>
+        <v>morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
       </c>
       <c r="B44" t="str">
         <v>FakeToken</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>morpho/morpho-v1-main/src/compound/IncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
       </c>
       <c r="B45" t="str">
         <v>IncentivesVault</v>
@@ -4004,13 +4004,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>morpho/morpho-v1-main/src/compound/InterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
       </c>
       <c r="B46" t="str">
         <v>InterestRatesManager</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4084,40 +4084,40 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MatchingEngine.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>MatchingEngine</v>
+        <v>ICEth</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4159,45 +4159,45 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>morpho/morpho-v1-main/src/compound/Morpho.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>Morpho</v>
+        <v>IComptroller</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4218,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4230,54 +4230,54 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MorphoGovernance.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>MorphoGovernance</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>477</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4319,30 +4319,30 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MorphoStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>MorphoStorage</v>
+        <v>ICToken</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F50">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4357,16 +4357,16 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4404,34 +4404,34 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MorphoUtils.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>MorphoUtils</v>
+        <v>ICEther</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -4479,45 +4479,45 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>morpho/morpho-v1-main/src/compound/PositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>PositionsManager</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>15</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>1019</v>
-      </c>
       <c r="H52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4538,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4559,51 +4559,51 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>morpho/morpho-v1-main/src/compound/RewardsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>RewardsManager</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4618,19 +4618,19 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -4639,30 +4639,30 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IIncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>IIncentivesVault</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -4724,25 +4724,25 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IInterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>IInterestRatesManager</v>
+        <v>IMorpho</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IMorpho.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>IMorpho</v>
+        <v>IOracle</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4816,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4884,25 +4884,25 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IOracle.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>IOracle</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4964,25 +4964,25 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>IPositionsManager</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5044,25 +5044,25 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IRewardsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>IRewardsManager</v>
+        <v>IWETH</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -5124,31 +5124,31 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IWETH.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>IWETH</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5172,13 +5172,13 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
         <v>2</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -5199,30 +5199,30 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>ICEth</v>
+        <v>ILens</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -5284,31 +5284,31 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>IComptroller</v>
+        <v>Lens</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -5341,16 +5341,16 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -5359,30 +5359,30 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>IInterestRateModel</v>
+        <v>LensStorage</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -5439,36 +5439,36 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
       </c>
       <c r="B64" t="str">
-        <v>ICToken</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -5519,69 +5519,69 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
       </c>
       <c r="B65" t="str">
-        <v>ICEther</v>
+        <v>RatesLens</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
+        <v>443</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <v>5</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="X65">
         <v>0</v>
@@ -5599,70 +5599,70 @@
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
       </c>
       <c r="B66" t="str">
-        <v>ICompoundOracle</v>
+        <v>RewardsLens</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
+        <v>171</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
         <v>3</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>1</v>
-      </c>
       <c r="U66">
         <v>0</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -5679,70 +5679,70 @@
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/IndexesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
       </c>
       <c r="B67" t="str">
-        <v>IndexesLens</v>
+        <v>UsersLens</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>461</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
         <v>5</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>147</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>2</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
       <c r="U67">
         <v>0</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -5759,116 +5759,116 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/Lens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
       </c>
       <c r="B68" t="str">
-        <v>Lens</v>
+        <v>CompoundMath</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
         <v>4</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>87</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>1</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>5</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/LensStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B69" t="str">
-        <v>LensStorage</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -5898,19 +5898,19 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -5919,15 +5919,15 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/MarketsLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
       </c>
       <c r="B70" t="str">
-        <v>MarketsLens</v>
+        <v>Types</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5936,19 +5936,19 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -5969,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -5999,15 +5999,15 @@
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/RatesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
       </c>
       <c r="B71" t="str">
-        <v>RatesLens</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6016,16 +6016,16 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -6052,16 +6052,16 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="X71">
         <v>0</v>
@@ -6079,15 +6079,15 @@
         <v>0</v>
       </c>
       <c r="Z71">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/RewardsLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\Morpho.sol</v>
       </c>
       <c r="B72" t="str">
-        <v>RewardsLens</v>
+        <v>Morpho</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6096,25 +6096,25 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -6132,16 +6132,16 @@
         <v>0</v>
       </c>
       <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
         <v>4</v>
       </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
       <c r="T72">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -6150,88 +6150,88 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/UsersLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
       </c>
       <c r="B73" t="str">
-        <v>UsersLens</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
       <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>477</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>24</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
         <v>15</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>461</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>7</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>3</v>
-      </c>
-      <c r="T73">
-        <v>5</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>21</v>
-      </c>
       <c r="X73">
         <v>0</v>
       </c>
@@ -6239,30 +6239,30 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/interfaces/ILens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
       </c>
       <c r="B74" t="str">
-        <v>ILens</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G74">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -6277,16 +6277,16 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -6301,10 +6301,10 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -6324,32 +6324,32 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>morpho/morpho-v1-main/src/compound/libraries/CompoundMath.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
       </c>
       <c r="B75" t="str">
-        <v>CompoundMath</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>212</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>3</v>
       </c>
-      <c r="E75">
-        <v>7</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>45</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75">
         <v>2</v>
       </c>
@@ -6357,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -6399,45 +6399,45 @@
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>morpho/morpho-v1-main/src/compound/libraries/InterestRatesModel.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
       </c>
       <c r="B76" t="str">
-        <v>InterestRatesModel</v>
+        <v>PositionsManager</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>194</v>
+        <v>1019</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -6458,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -6479,15 +6479,15 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>33</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>morpho/morpho-v1-main/src/compound/libraries/Types.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
       </c>
       <c r="B77" t="str">
-        <v>Types</v>
+        <v>RewardsManager</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -6496,40 +6496,40 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G77">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -6538,19 +6538,19 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/xlsxContracts.xlsx
+++ b/sheets/xlsxContracts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,40 +484,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>EntryPositionsManager</v>
+        <v>IUniswapV3FlashCallback</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -559,45 +559,45 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>ExitPositionsManager</v>
+        <v>IUniswapV3MintCallback</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>703</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -618,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -639,45 +639,45 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IncentivesVault</v>
+        <v>IUniswapV3SwapCallback</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -719,15 +719,15 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>InterestRatesManager</v>
+        <v>IERC20Minimal</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>171</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -799,30 +799,30 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IUniswapV3Factory</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -884,28 +884,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IUniswapV3Pool</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>103</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IAToken</v>
+        <v>IUniswapV3PoolDeployer</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -976,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IERC20</v>
+        <v>IUniswapV3PoolActions</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>ILendingPool</v>
+        <v>IUniswapV3PoolDerivedState</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>IUniswapV3PoolEvents</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>IUniswapV3PoolImmutables</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1296,52 +1296,52 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>6</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>IUniswapV3PoolOwnerActions</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IVariableDebtToken</v>
+        <v>IUniswapV3PoolState</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>BitMath</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1599,15 +1599,15 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>IExitPositionsManager</v>
+        <v>FixedPoint128</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>FixedPoint96</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>IIncentivesVault</v>
+        <v>FullMath</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -1839,18 +1839,18 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>IInterestRatesManager</v>
+        <v>LiquidityMath</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -1919,15 +1919,15 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>IMorpho</v>
+        <v>LowGasSafeMath</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -1999,33 +1999,33 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>IOracle</v>
+        <v>Oracle</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2079,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\Position.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>IRewardsManager</v>
+        <v>Position</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2159,30 +2159,30 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>ILido</v>
+        <v>SafeCast</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2239,36 +2239,36 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>IndexesLens</v>
+        <v>SqrtPriceMath</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2319,30 +2319,30 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>ILens</v>
+        <v>SwapMath</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2399,33 +2399,33 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Lens</v>
+        <v>Tick</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2458,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2479,30 +2479,30 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>LensStorage</v>
+        <v>TickBitmap</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2535,22 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2559,36 +2559,36 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>MarketsLens</v>
+        <v>TickMath</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2639,36 +2639,36 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>RatesLens</v>
+        <v>TransferHelper</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2692,26 +2692,26 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>4</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>16</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -2719,15 +2719,15 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UsersLens</v>
+        <v>UnsafeMath</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -2799,33 +2799,33 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
+        <v>uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>DataTypes</v>
+        <v>NoDelegateCall</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2864,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -2879,30 +2879,30 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>Errors</v>
+        <v>BitMathEchidnaTest</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -2959,15 +2959,15 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>ReserveConfiguration</v>
+        <v>BitMathTest</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3039,30 +3039,30 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>UserConfiguration</v>
+        <v>FullMathEchidnaTest</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3119,70 +3119,70 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>InterestRatesModel</v>
+        <v>FullMathTest</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
         <v>0</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3199,15 +3199,15 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>Types</v>
+        <v>LiquidityMathTest</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3216,16 +3216,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3279,15 +3279,15 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>MatchingEngine</v>
+        <v>LowGasSafeMathEchidnaTest</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3296,28 +3296,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3359,70 +3359,70 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>Morpho</v>
+        <v>MockTimeUniswapV3Pool</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>11</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3439,110 +3439,110 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MorphoGovernance</v>
+        <v>MockTimeUniswapV3PoolDeployer</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>519</v>
+        <v>28</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>6</v>
-      </c>
-      <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>26</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>19</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>MorphoStorage</v>
+        <v>NoDelegateCallTest</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3557,34 +3557,34 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>2</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>14</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3599,78 +3599,78 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>MorphoUtils</v>
+        <v>OracleEchidnaTest</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>317</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -3679,45 +3679,45 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>OracleTest</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3726,22 +3726,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3759,51 +3759,51 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>RewardsDistributor</v>
+        <v>SqrtPriceMathEchidnaTest</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -3839,30 +3839,30 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>FakeToken</v>
+        <v>SqrtPriceMathTest</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3919,45 +3919,45 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>IncentivesVault</v>
+        <v>SwapMathEchidnaTest</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -3999,18 +3999,18 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>InterestRatesManager</v>
+        <v>SwapMathTest</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4022,47 +4022,47 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
       <c r="U46">
         <v>0</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4079,30 +4079,30 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>ICEth</v>
+        <v>TestERC20</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4159,45 +4159,45 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>IComptroller</v>
+        <v>TestUniswapV3Callee</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4239,18 +4239,18 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>IInterestRateModel</v>
+        <v>TestUniswapV3ReentrantCallee</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4319,45 +4319,45 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>ICToken</v>
+        <v>TestUniswapV3Router</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4399,18 +4399,18 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>ICEther</v>
+        <v>TestUniswapV3SwapPay</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -4479,15 +4479,15 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>ICompoundOracle</v>
+        <v>TickBitmapEchidnaTest</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4496,19 +4496,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4535,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4559,36 +4559,36 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>IIncentivesVault</v>
+        <v>TickBitmapTest</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4639,18 +4639,18 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>IInterestRatesManager</v>
+        <v>TickEchidnaTest</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -4719,30 +4719,30 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>IMorpho</v>
+        <v>TickMathEchidnaTest</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -4799,30 +4799,30 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>IOracle</v>
+        <v>TickMathTest</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4879,15 +4879,15 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>IPositionsManager</v>
+        <v>TickOverflowSafetyEchidnaTest</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4896,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -4959,36 +4959,36 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickTest.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>IRewardsManager</v>
+        <v>TickTest</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5039,18 +5039,18 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>IWETH</v>
+        <v>UniswapV3PoolSwapTest</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5119,79 +5119,79 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>IndexesLens</v>
+        <v>UnsafeMathEchidnaTest</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>5</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>147</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>6</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
@@ -5199,30 +5199,30 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
+        <v>uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>ILens</v>
+        <v>UniswapV3Factory</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -5279,78 +5279,78 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
+        <v>uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>Lens</v>
+        <v>UniswapV3Pool</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>840</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>87</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W62">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -5359,18 +5359,18 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
+        <v>uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>LensStorage</v>
+        <v>UniswapV3PoolDeployer</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5418,16 +5418,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -5442,1129 +5442,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
-      </c>
-      <c r="B64" t="str">
-        <v>MarketsLens</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>170</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>2</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>8</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
-      </c>
-      <c r="B65" t="str">
-        <v>RatesLens</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>443</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>5</v>
-      </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>16</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
-      </c>
-      <c r="B66" t="str">
-        <v>RewardsLens</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>171</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>4</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>11</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
-      </c>
-      <c r="B67" t="str">
-        <v>UsersLens</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>461</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>7</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>3</v>
-      </c>
-      <c r="T67">
-        <v>5</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>21</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
-      </c>
-      <c r="B68" t="str">
-        <v>CompoundMath</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>45</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>7</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>3</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
-      </c>
-      <c r="B69" t="str">
-        <v>InterestRatesModel</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>194</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>5</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Types</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>86</v>
-      </c>
-      <c r="H70">
-        <v>11</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
-      </c>
-      <c r="B71" t="str">
-        <v>MatchingEngine</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>376</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>6</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>39</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>morpho\morpho-v1-main\src\compound\Morpho.sol</v>
-      </c>
-      <c r="B72" t="str">
-        <v>Morpho</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>237</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>4</v>
-      </c>
-      <c r="T72">
-        <v>12</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>4</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
-      </c>
-      <c r="B73" t="str">
-        <v>MorphoGovernance</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>25</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>477</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-      <c r="K73">
-        <v>21</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>24</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>15</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
-      </c>
-      <c r="B74" t="str">
-        <v>MorphoStorage</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>33</v>
-      </c>
-      <c r="G74">
-        <v>56</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>17</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
-      </c>
-      <c r="B75" t="str">
-        <v>MorphoUtils</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>212</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>6</v>
-      </c>
-      <c r="T75">
-        <v>5</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>16</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
-      </c>
-      <c r="B76" t="str">
-        <v>PositionsManager</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1019</v>
-      </c>
-      <c r="H76">
-        <v>4</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <v>19</v>
-      </c>
-      <c r="K76">
-        <v>9</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>9</v>
-      </c>
-      <c r="T76">
-        <v>6</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>99</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
-      </c>
-      <c r="B77" t="str">
-        <v>RewardsManager</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>12</v>
-      </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77">
-        <v>247</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>5</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>5</v>
-      </c>
-      <c r="T77">
-        <v>6</v>
-      </c>
-      <c r="U77">
-        <v>1</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>13</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z63"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/xlsxContracts.xlsx
+++ b/sheets/xlsxContracts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,40 +484,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>IUniswapV3FlashCallback</v>
+        <v>EntryPositionsManager</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -559,45 +559,45 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>IUniswapV3MintCallback</v>
+        <v>ExitPositionsManager</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>703</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -618,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -639,95 +639,95 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IUniswapV3SwapCallback</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>134</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>16</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>IERC20Minimal</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -799,30 +799,30 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IUniswapV3Factory</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -884,64 +884,64 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IUniswapV3Pool</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IUniswapV3PoolDeployer</v>
+        <v>IAToken</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -976,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IUniswapV3PoolActions</v>
+        <v>IERC20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>IUniswapV3PoolDerivedState</v>
+        <v>ILendingPool</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>410</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>IUniswapV3PoolEvents</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IUniswapV3PoolImmutables</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1296,14 +1296,14 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IUniswapV3PoolOwnerActions</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IUniswapV3PoolState</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>BitMath</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1599,15 +1599,15 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>FixedPoint128</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>FixedPoint96</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>FullMath</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -1839,18 +1839,18 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>LiquidityMath</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -1919,15 +1919,15 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>LowGasSafeMath</v>
+        <v>IMorpho</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -1999,33 +1999,33 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>Oracle</v>
+        <v>IOracle</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>315</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2079,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\Position.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>Position</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2159,31 +2159,31 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>SafeCast</v>
+        <v>ILido</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2239,36 +2239,36 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>SqrtPriceMath</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2319,30 +2319,30 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>SwapMath</v>
+        <v>ILens</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2399,33 +2399,33 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Tick</v>
+        <v>Lens</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2458,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2479,30 +2479,30 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>TickBitmap</v>
+        <v>LensStorage</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2535,22 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2559,36 +2559,36 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>TickMath</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2639,79 +2639,79 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>TransferHelper</v>
+        <v>RatesLens</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>457</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>16</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>4</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -2719,15 +2719,15 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UnsafeMath</v>
+        <v>UsersLens</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -2799,33 +2799,33 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>NoDelegateCall</v>
+        <v>DataTypes</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2864,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -2879,30 +2879,30 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>BitMathEchidnaTest</v>
+        <v>Errors</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -2959,15 +2959,15 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>BitMathTest</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3039,30 +3039,30 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>FullMathEchidnaTest</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3119,36 +3119,36 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>FullMathTest</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3199,15 +3199,15 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>LiquidityMathTest</v>
+        <v>Types</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3216,17 +3216,17 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
+        <v>97</v>
+      </c>
+      <c r="H36">
         <v>11</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
         <v>0</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3279,15 +3279,15 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>LowGasSafeMathEchidnaTest</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3296,28 +3296,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3359,69 +3359,69 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>MockTimeUniswapV3Pool</v>
+        <v>Morpho</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>235</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>4</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
       <c r="T38">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3439,42 +3439,42 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MockTimeUniswapV3PoolDeployer</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>519</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -3519,30 +3519,30 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>NoDelegateCallTest</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3557,34 +3557,34 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3599,78 +3599,78 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>OracleEchidnaTest</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>317</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>13</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>131</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -3679,45 +3679,45 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>OracleTest</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3726,22 +3726,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3759,51 +3759,51 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>SqrtPriceMathEchidnaTest</v>
+        <v>RewardsDistributor</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -3839,30 +3839,30 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>SqrtPriceMathTest</v>
+        <v>FakeToken</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3919,45 +3919,45 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>SwapMathEchidnaTest</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W45">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -3999,18 +3999,18 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>SwapMathTest</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4079,30 +4079,30 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>TestERC20</v>
+        <v>ICEth</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4159,45 +4159,45 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>TestUniswapV3Callee</v>
+        <v>IComptroller</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4239,18 +4239,18 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>TestUniswapV3ReentrantCallee</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4319,45 +4319,45 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>TestUniswapV3Router</v>
+        <v>ICToken</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4399,18 +4399,18 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>TestUniswapV3SwapPay</v>
+        <v>ICEther</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -4479,15 +4479,15 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>TickBitmapEchidnaTest</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4496,19 +4496,19 @@
         <v>0</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>42</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4535,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4559,36 +4559,36 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>TickBitmapTest</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4639,18 +4639,18 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>TickEchidnaTest</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -4719,30 +4719,30 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>TickMathEchidnaTest</v>
+        <v>IMorpho</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -4799,30 +4799,30 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>TickMathTest</v>
+        <v>IOracle</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4879,15 +4879,15 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>TickOverflowSafetyEchidnaTest</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4896,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -4959,36 +4959,36 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>TickTest</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5039,18 +5039,18 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>UniswapV3PoolSwapTest</v>
+        <v>IWETH</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5119,36 +5119,36 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>UnsafeMathEchidnaTest</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5172,16 +5172,16 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -5199,30 +5199,30 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>UniswapV3Factory</v>
+        <v>ILens</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -5279,36 +5279,36 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>UniswapV3Pool</v>
+        <v>Lens</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>840</v>
+        <v>87</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5317,16 +5317,16 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -5335,23 +5335,23 @@
         <v>0</v>
       </c>
       <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
         <v>5</v>
       </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>11</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62">
-        <v>6</v>
-      </c>
-      <c r="W62">
-        <v>82</v>
-      </c>
       <c r="X62">
         <v>0</v>
       </c>
@@ -5359,18 +5359,18 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>UniswapV3PoolDeployer</v>
+        <v>LensStorage</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5418,16 +5418,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -5442,9 +5442,1129 @@
         <v>5</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
+      </c>
+      <c r="B64" t="str">
+        <v>MarketsLens</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>170</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
+      </c>
+      <c r="B65" t="str">
+        <v>RatesLens</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>443</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>4</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>16</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
+      </c>
+      <c r="B66" t="str">
+        <v>RewardsLens</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>171</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>11</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
+      </c>
+      <c r="B67" t="str">
+        <v>UsersLens</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>461</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>21</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
+      </c>
+      <c r="B68" t="str">
+        <v>CompoundMath</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
+      </c>
+      <c r="B69" t="str">
+        <v>InterestRatesModel</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>194</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>10</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Types</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>86</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
+      </c>
+      <c r="B71" t="str">
+        <v>MatchingEngine</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>376</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>39</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\Morpho.sol</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Morpho</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>237</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>12</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MorphoGovernance</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>477</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>24</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
+      </c>
+      <c r="B74" t="str">
+        <v>MorphoStorage</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>33</v>
+      </c>
+      <c r="G74">
+        <v>56</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
+      </c>
+      <c r="B75" t="str">
+        <v>MorphoUtils</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>212</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>16</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
+      </c>
+      <c r="B76" t="str">
+        <v>PositionsManager</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1019</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>19</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>6</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>99</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
+      </c>
+      <c r="B77" t="str">
+        <v>RewardsManager</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>247</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>6</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>13</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z77"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/xlsxContracts.xlsx
+++ b/sheets/xlsxContracts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,40 +484,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>EntryPositionsManager</v>
+        <v>IUniswapV3FlashCallback</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -559,45 +559,45 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>ExitPositionsManager</v>
+        <v>IUniswapV3MintCallback</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>703</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -618,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -639,45 +639,45 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IncentivesVault</v>
+        <v>IUniswapV3SwapCallback</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -719,15 +719,15 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>InterestRatesManager</v>
+        <v>IERC20Minimal</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>171</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -799,30 +799,30 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IUniswapV3Factory</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -884,28 +884,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IUniswapV3Pool</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>103</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IAToken</v>
+        <v>IUniswapV3PoolDeployer</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -976,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IERC20</v>
+        <v>IUniswapV3PoolActions</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>ILendingPool</v>
+        <v>IUniswapV3PoolDerivedState</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>IUniswapV3PoolEvents</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>IUniswapV3PoolImmutables</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1296,52 +1296,52 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>6</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>IUniswapV3PoolOwnerActions</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IVariableDebtToken</v>
+        <v>IUniswapV3PoolState</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>BitMath</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1599,15 +1599,15 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>IExitPositionsManager</v>
+        <v>FixedPoint128</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>FixedPoint96</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>IIncentivesVault</v>
+        <v>FullMath</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -1839,18 +1839,18 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>IInterestRatesManager</v>
+        <v>LiquidityMath</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -1919,15 +1919,15 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>IMorpho</v>
+        <v>LowGasSafeMath</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -1999,33 +1999,33 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>IOracle</v>
+        <v>Oracle</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2079,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Position.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>IRewardsManager</v>
+        <v>Position</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2159,30 +2159,30 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>ILido</v>
+        <v>SafeCast</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2239,36 +2239,36 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>IndexesLens</v>
+        <v>SqrtPriceMath</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2319,30 +2319,30 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>ILens</v>
+        <v>SwapMath</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2399,33 +2399,33 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Lens</v>
+        <v>Tick</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2458,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2479,30 +2479,30 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>LensStorage</v>
+        <v>TickBitmap</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2535,22 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2559,36 +2559,36 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>MarketsLens</v>
+        <v>TickMath</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2639,36 +2639,36 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>RatesLens</v>
+        <v>TransferHelper</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2692,26 +2692,26 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>4</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>16</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -2719,15 +2719,15 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UsersLens</v>
+        <v>UnsafeMath</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -2799,33 +2799,33 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>DataTypes</v>
+        <v>NoDelegateCall</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2864,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -2879,30 +2879,30 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>Errors</v>
+        <v>BitMathEchidnaTest</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -2959,15 +2959,15 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>ReserveConfiguration</v>
+        <v>BitMathTest</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3039,30 +3039,30 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>UserConfiguration</v>
+        <v>FullMathEchidnaTest</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3119,70 +3119,70 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>InterestRatesModel</v>
+        <v>FullMathTest</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
         <v>0</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3199,15 +3199,15 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>Types</v>
+        <v>LiquidityMathTest</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3216,16 +3216,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3279,15 +3279,15 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>MatchingEngine</v>
+        <v>LowGasSafeMathEchidnaTest</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3296,28 +3296,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3359,70 +3359,70 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>Morpho</v>
+        <v>MockTimeUniswapV3Pool</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>11</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3439,110 +3439,110 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MorphoGovernance</v>
+        <v>MockTimeUniswapV3PoolDeployer</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>519</v>
+        <v>28</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>6</v>
-      </c>
-      <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>26</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>19</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>MorphoStorage</v>
+        <v>NoDelegateCallTest</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3557,34 +3557,34 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>2</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>14</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3599,78 +3599,78 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>MorphoUtils</v>
+        <v>OracleEchidnaTest</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>317</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -3679,45 +3679,45 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>OracleTest</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3726,22 +3726,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3759,51 +3759,51 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>RewardsDistributor</v>
+        <v>SqrtPriceMathEchidnaTest</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -3839,30 +3839,30 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>FakeToken</v>
+        <v>SqrtPriceMathTest</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3919,45 +3919,45 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>IncentivesVault</v>
+        <v>SwapMathEchidnaTest</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -3999,18 +3999,18 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>InterestRatesManager</v>
+        <v>SwapMathTest</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4022,47 +4022,47 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
       <c r="U46">
         <v>0</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4079,30 +4079,30 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>ICEth</v>
+        <v>TestERC20</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4159,45 +4159,45 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>IComptroller</v>
+        <v>TestUniswapV3Callee</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4239,18 +4239,18 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>IInterestRateModel</v>
+        <v>TestUniswapV3ReentrantCallee</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4319,45 +4319,45 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>ICToken</v>
+        <v>TestUniswapV3Router</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4399,18 +4399,18 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>ICEther</v>
+        <v>TestUniswapV3SwapPay</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -4479,15 +4479,15 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>ICompoundOracle</v>
+        <v>TickBitmapEchidnaTest</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4496,19 +4496,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4535,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4559,36 +4559,36 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>IIncentivesVault</v>
+        <v>TickBitmapTest</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4639,18 +4639,18 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>IInterestRatesManager</v>
+        <v>TickEchidnaTest</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -4719,30 +4719,30 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>IMorpho</v>
+        <v>TickMathEchidnaTest</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -4799,30 +4799,30 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>IOracle</v>
+        <v>TickMathTest</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4879,15 +4879,15 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>IPositionsManager</v>
+        <v>TickOverflowSafetyEchidnaTest</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4896,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -4959,36 +4959,36 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickTest.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>IRewardsManager</v>
+        <v>TickTest</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5039,18 +5039,18 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>IWETH</v>
+        <v>UniswapV3PoolSwapTest</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5119,79 +5119,79 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>IndexesLens</v>
+        <v>UnsafeMathEchidnaTest</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>5</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>147</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>6</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
@@ -5199,30 +5199,30 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>ILens</v>
+        <v>UniswapV3Factory</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -5279,78 +5279,78 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>Lens</v>
+        <v>UniswapV3Pool</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>840</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>87</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W62">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -5359,18 +5359,18 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>LensStorage</v>
+        <v>UniswapV3PoolDeployer</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5418,16 +5418,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -5442,1129 +5442,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
-      </c>
-      <c r="B64" t="str">
-        <v>MarketsLens</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>170</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>2</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>8</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
-      </c>
-      <c r="B65" t="str">
-        <v>RatesLens</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>443</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>5</v>
-      </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>16</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
-      </c>
-      <c r="B66" t="str">
-        <v>RewardsLens</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>171</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>4</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>11</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
-      </c>
-      <c r="B67" t="str">
-        <v>UsersLens</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>461</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>7</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>3</v>
-      </c>
-      <c r="T67">
-        <v>5</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>21</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
-      </c>
-      <c r="B68" t="str">
-        <v>CompoundMath</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>45</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>7</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>3</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
-      </c>
-      <c r="B69" t="str">
-        <v>InterestRatesModel</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>194</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>5</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Types</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>86</v>
-      </c>
-      <c r="H70">
-        <v>11</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
-      </c>
-      <c r="B71" t="str">
-        <v>MatchingEngine</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>376</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>6</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>39</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\Morpho.sol</v>
-      </c>
-      <c r="B72" t="str">
-        <v>Morpho</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>237</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>4</v>
-      </c>
-      <c r="T72">
-        <v>12</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>4</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
-      </c>
-      <c r="B73" t="str">
-        <v>MorphoGovernance</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>25</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>477</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-      <c r="K73">
-        <v>21</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>24</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>15</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
-      </c>
-      <c r="B74" t="str">
-        <v>MorphoStorage</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>33</v>
-      </c>
-      <c r="G74">
-        <v>56</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>17</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
-      </c>
-      <c r="B75" t="str">
-        <v>MorphoUtils</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>212</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>6</v>
-      </c>
-      <c r="T75">
-        <v>5</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>16</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
-      </c>
-      <c r="B76" t="str">
-        <v>PositionsManager</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1019</v>
-      </c>
-      <c r="H76">
-        <v>4</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <v>19</v>
-      </c>
-      <c r="K76">
-        <v>9</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>9</v>
-      </c>
-      <c r="T76">
-        <v>6</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>99</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
-      </c>
-      <c r="B77" t="str">
-        <v>RewardsManager</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>12</v>
-      </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77">
-        <v>247</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>5</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>5</v>
-      </c>
-      <c r="T77">
-        <v>6</v>
-      </c>
-      <c r="U77">
-        <v>1</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>13</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z63"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/xlsxContracts.xlsx
+++ b/sheets/xlsxContracts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,40 +484,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>IUniswapV3FlashCallback</v>
+        <v>EntryPositionsManager</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -559,45 +559,45 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>IUniswapV3MintCallback</v>
+        <v>ExitPositionsManager</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>703</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -618,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -639,95 +639,95 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IUniswapV3SwapCallback</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>134</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>16</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>IERC20Minimal</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -799,30 +799,30 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IUniswapV3Factory</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -884,64 +884,64 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IUniswapV3Pool</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IUniswapV3PoolDeployer</v>
+        <v>IAToken</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -976,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IUniswapV3PoolActions</v>
+        <v>IERC20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>IUniswapV3PoolDerivedState</v>
+        <v>ILendingPool</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>410</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>IUniswapV3PoolEvents</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IUniswapV3PoolImmutables</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1296,14 +1296,14 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IUniswapV3PoolOwnerActions</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IUniswapV3PoolState</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>BitMath</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1599,15 +1599,15 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>FixedPoint128</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>FixedPoint96</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>FullMath</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -1839,18 +1839,18 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>LiquidityMath</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -1919,15 +1919,15 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>LowGasSafeMath</v>
+        <v>IMorpho</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -1999,33 +1999,33 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>Oracle</v>
+        <v>IOracle</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>315</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2079,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Position.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>Position</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2159,31 +2159,31 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>SafeCast</v>
+        <v>ILido</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2239,36 +2239,36 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>SqrtPriceMath</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2319,30 +2319,30 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>SwapMath</v>
+        <v>ILens</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2399,33 +2399,33 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Tick</v>
+        <v>Lens</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2458,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2479,30 +2479,30 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>TickBitmap</v>
+        <v>LensStorage</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2535,22 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2559,36 +2559,36 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>TickMath</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2639,79 +2639,79 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>TransferHelper</v>
+        <v>RatesLens</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>457</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>16</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>4</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -2719,15 +2719,15 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UnsafeMath</v>
+        <v>UsersLens</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -2799,33 +2799,33 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>NoDelegateCall</v>
+        <v>DataTypes</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2864,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -2879,30 +2879,30 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>BitMathEchidnaTest</v>
+        <v>Errors</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -2959,15 +2959,15 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>BitMathTest</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3039,30 +3039,30 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>FullMathEchidnaTest</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3119,36 +3119,36 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>FullMathTest</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3199,15 +3199,15 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>LiquidityMathTest</v>
+        <v>Types</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3216,17 +3216,17 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
+        <v>97</v>
+      </c>
+      <c r="H36">
         <v>11</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
         <v>0</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3279,15 +3279,15 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>LowGasSafeMathEchidnaTest</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3296,28 +3296,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3359,69 +3359,69 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>MockTimeUniswapV3Pool</v>
+        <v>Morpho</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>235</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>4</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
       <c r="T38">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3439,42 +3439,42 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MockTimeUniswapV3PoolDeployer</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>519</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -3519,30 +3519,30 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>NoDelegateCallTest</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3557,34 +3557,34 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3599,78 +3599,78 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>OracleEchidnaTest</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>317</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>13</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>131</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -3679,45 +3679,45 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>OracleTest</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3726,22 +3726,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3759,51 +3759,51 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>SqrtPriceMathEchidnaTest</v>
+        <v>RewardsDistributor</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -3839,30 +3839,30 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>SqrtPriceMathTest</v>
+        <v>FakeToken</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3919,45 +3919,45 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>SwapMathEchidnaTest</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W45">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -3999,18 +3999,18 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>SwapMathTest</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4079,30 +4079,30 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>TestERC20</v>
+        <v>ICEth</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4159,45 +4159,45 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>TestUniswapV3Callee</v>
+        <v>IComptroller</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4239,18 +4239,18 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>TestUniswapV3ReentrantCallee</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4319,45 +4319,45 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>TestUniswapV3Router</v>
+        <v>ICToken</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4399,18 +4399,18 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>TestUniswapV3SwapPay</v>
+        <v>ICEther</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -4479,15 +4479,15 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>TickBitmapEchidnaTest</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4496,19 +4496,19 @@
         <v>0</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>42</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4535,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4559,36 +4559,36 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>TickBitmapTest</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4639,18 +4639,18 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>TickEchidnaTest</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -4719,30 +4719,30 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>TickMathEchidnaTest</v>
+        <v>IMorpho</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -4799,30 +4799,30 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>TickMathTest</v>
+        <v>IOracle</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4879,15 +4879,15 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>TickOverflowSafetyEchidnaTest</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4896,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -4959,36 +4959,36 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>TickTest</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5039,18 +5039,18 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>UniswapV3PoolSwapTest</v>
+        <v>IWETH</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5119,36 +5119,36 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>UnsafeMathEchidnaTest</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5172,16 +5172,16 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -5199,30 +5199,30 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>UniswapV3Factory</v>
+        <v>ILens</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -5279,36 +5279,36 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>UniswapV3Pool</v>
+        <v>Lens</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>840</v>
+        <v>87</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5317,16 +5317,16 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -5335,23 +5335,23 @@
         <v>0</v>
       </c>
       <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
         <v>5</v>
       </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>11</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62">
-        <v>6</v>
-      </c>
-      <c r="W62">
-        <v>82</v>
-      </c>
       <c r="X62">
         <v>0</v>
       </c>
@@ -5359,18 +5359,18 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>UniswapV3PoolDeployer</v>
+        <v>LensStorage</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5418,16 +5418,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -5442,9 +5442,1129 @@
         <v>5</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
+      </c>
+      <c r="B64" t="str">
+        <v>MarketsLens</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>170</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
+      </c>
+      <c r="B65" t="str">
+        <v>RatesLens</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>443</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>4</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>16</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
+      </c>
+      <c r="B66" t="str">
+        <v>RewardsLens</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>171</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>11</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
+      </c>
+      <c r="B67" t="str">
+        <v>UsersLens</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>461</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>21</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
+      </c>
+      <c r="B68" t="str">
+        <v>CompoundMath</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
+      </c>
+      <c r="B69" t="str">
+        <v>InterestRatesModel</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>194</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>10</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Types</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>86</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
+      </c>
+      <c r="B71" t="str">
+        <v>MatchingEngine</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>376</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>39</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\Morpho.sol</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Morpho</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>237</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>12</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MorphoGovernance</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>477</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>24</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
+      </c>
+      <c r="B74" t="str">
+        <v>MorphoStorage</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>33</v>
+      </c>
+      <c r="G74">
+        <v>56</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
+      </c>
+      <c r="B75" t="str">
+        <v>MorphoUtils</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>212</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>16</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
+      </c>
+      <c r="B76" t="str">
+        <v>PositionsManager</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1019</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>19</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>6</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>99</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
+      </c>
+      <c r="B77" t="str">
+        <v>RewardsManager</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>247</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>6</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>13</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z77"/>
   </ignoredErrors>
 </worksheet>
 </file>